--- a/players_stats/Martell Webster.xlsx
+++ b/players_stats/Martell Webster.xlsx
@@ -552,108 +552,110 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1975-76</t>
+          <t>2005-06</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>DNA</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ABA</t>
+          <t>NBA</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>38</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>61</v>
+      </c>
+      <c r="I2" t="n">
+        <v>18</v>
+      </c>
       <c r="J2" t="n">
-        <v>398</v>
+        <v>1070</v>
       </c>
       <c r="K2" t="n">
-        <v>55</v>
+        <v>139</v>
       </c>
       <c r="L2" t="n">
-        <v>120</v>
+        <v>348</v>
       </c>
       <c r="M2" t="n">
-        <v>0.458</v>
+        <v>0.399</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>182</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>0.357</v>
       </c>
       <c r="Q2" t="n">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="R2" t="n">
-        <v>119</v>
+        <v>166</v>
       </c>
       <c r="S2" t="n">
-        <v>0.462</v>
+        <v>0.446</v>
       </c>
       <c r="T2" t="n">
-        <v>0.458</v>
+        <v>0.493</v>
       </c>
       <c r="U2" t="n">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="V2" t="n">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="W2" t="n">
-        <v>0.705</v>
+        <v>0.8590000000000001</v>
       </c>
       <c r="X2" t="n">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="Y2" t="n">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="Z2" t="n">
-        <v>174</v>
+        <v>130</v>
       </c>
       <c r="AA2" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AB2" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="AC2" t="n">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="AD2" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="AE2" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AF2" t="n">
-        <v>165</v>
+        <v>404</v>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 216</t>
+          <t xml:space="preserve"> 201</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 102 </t>
+          <t xml:space="preserve"> 104 </t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
@@ -662,7 +664,7 @@
         </is>
       </c>
       <c r="AJ2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -674,15 +676,15 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1976-77</t>
+          <t>2006-07</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -692,82 +694,92 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>80</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>82</v>
+      </c>
+      <c r="I3" t="n">
+        <v>27</v>
+      </c>
       <c r="J3" t="n">
-        <v>1276</v>
+        <v>1759</v>
       </c>
       <c r="K3" t="n">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L3" t="n">
-        <v>400</v>
+        <v>492</v>
       </c>
       <c r="M3" t="n">
-        <v>0.495</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
+        <v>0.396</v>
+      </c>
+      <c r="N3" t="n">
+        <v>91</v>
+      </c>
+      <c r="O3" t="n">
+        <v>250</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.364</v>
+      </c>
       <c r="Q3" t="n">
-        <v>198</v>
+        <v>104</v>
       </c>
       <c r="R3" t="n">
-        <v>400</v>
+        <v>242</v>
       </c>
       <c r="S3" t="n">
-        <v>0.495</v>
+        <v>0.43</v>
       </c>
       <c r="T3" t="n">
-        <v>0.495</v>
+        <v>0.489</v>
       </c>
       <c r="U3" t="n">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="V3" t="n">
-        <v>220</v>
+        <v>132</v>
       </c>
       <c r="W3" t="n">
-        <v>0.65</v>
+        <v>0.705</v>
       </c>
       <c r="X3" t="n">
-        <v>152</v>
+        <v>43</v>
       </c>
       <c r="Y3" t="n">
-        <v>332</v>
+        <v>197</v>
       </c>
       <c r="Z3" t="n">
-        <v>484</v>
+        <v>240</v>
       </c>
       <c r="AA3" t="n">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="AB3" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="AC3" t="n">
-        <v>118</v>
-      </c>
-      <c r="AD3" t="inlineStr"/>
+        <v>19</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>76</v>
+      </c>
       <c r="AE3" t="n">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="AF3" t="n">
-        <v>539</v>
+        <v>574</v>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 216</t>
+          <t xml:space="preserve"> 201</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 102 </t>
+          <t xml:space="preserve"> 104 </t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
@@ -776,7 +788,7 @@
         </is>
       </c>
       <c r="AJ3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -788,15 +800,15 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1977-78</t>
+          <t>2007-08</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -806,84 +818,92 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>82</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>75</v>
+      </c>
+      <c r="I4" t="n">
+        <v>70</v>
+      </c>
       <c r="J4" t="n">
-        <v>2910</v>
+        <v>2132</v>
       </c>
       <c r="K4" t="n">
-        <v>427</v>
+        <v>277</v>
       </c>
       <c r="L4" t="n">
-        <v>851</v>
+        <v>656</v>
       </c>
       <c r="M4" t="n">
-        <v>0.502</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
+        <v>0.422</v>
+      </c>
+      <c r="N4" t="n">
+        <v>123</v>
+      </c>
+      <c r="O4" t="n">
+        <v>317</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.388</v>
+      </c>
       <c r="Q4" t="n">
-        <v>427</v>
+        <v>154</v>
       </c>
       <c r="R4" t="n">
-        <v>851</v>
+        <v>339</v>
       </c>
       <c r="S4" t="n">
-        <v>0.502</v>
+        <v>0.454</v>
       </c>
       <c r="T4" t="n">
-        <v>0.502</v>
+        <v>0.516</v>
       </c>
       <c r="U4" t="n">
-        <v>290</v>
+        <v>122</v>
       </c>
       <c r="V4" t="n">
-        <v>461</v>
+        <v>166</v>
       </c>
       <c r="W4" t="n">
-        <v>0.629</v>
+        <v>0.735</v>
       </c>
       <c r="X4" t="n">
-        <v>361</v>
+        <v>54</v>
       </c>
       <c r="Y4" t="n">
-        <v>674</v>
+        <v>242</v>
       </c>
       <c r="Z4" t="n">
-        <v>1035</v>
+        <v>296</v>
       </c>
       <c r="AA4" t="n">
-        <v>203</v>
+        <v>90</v>
       </c>
       <c r="AB4" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AC4" t="n">
-        <v>162</v>
+        <v>28</v>
       </c>
       <c r="AD4" t="n">
-        <v>257</v>
+        <v>83</v>
       </c>
       <c r="AE4" t="n">
-        <v>262</v>
+        <v>159</v>
       </c>
       <c r="AF4" t="n">
-        <v>1144</v>
+        <v>799</v>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 216</t>
+          <t xml:space="preserve"> 201</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 102 </t>
+          <t xml:space="preserve"> 104 </t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
@@ -892,7 +912,7 @@
         </is>
       </c>
       <c r="AJ4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -904,15 +924,15 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1978-79</t>
+          <t>2008-09</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -922,84 +942,88 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>60</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
       <c r="J5" t="n">
-        <v>2027</v>
+        <v>5</v>
       </c>
       <c r="K5" t="n">
-        <v>264</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>558</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
-        <v>0.473</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
       <c r="Q5" t="n">
-        <v>264</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>558</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.473</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S5" t="inlineStr"/>
       <c r="T5" t="n">
-        <v>0.473</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>262</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.573</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="W5" t="inlineStr"/>
       <c r="X5" t="n">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>457</v>
+        <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>655</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>183</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>678</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 216</t>
+          <t xml:space="preserve"> 201</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 102 </t>
+          <t xml:space="preserve"> 104 </t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
@@ -1008,7 +1032,7 @@
         </is>
       </c>
       <c r="AJ5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1020,15 +1044,15 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1979-80</t>
+          <t>2009-10</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1038,88 +1062,92 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>20</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>82</v>
+      </c>
+      <c r="I6" t="n">
+        <v>49</v>
+      </c>
       <c r="J6" t="n">
-        <v>298</v>
+        <v>2005</v>
       </c>
       <c r="K6" t="n">
-        <v>38</v>
+        <v>259</v>
       </c>
       <c r="L6" t="n">
-        <v>79</v>
+        <v>639</v>
       </c>
       <c r="M6" t="n">
-        <v>0.481</v>
+        <v>0.405</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="inlineStr"/>
+        <v>332</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.373</v>
+      </c>
       <c r="Q6" t="n">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="R6" t="n">
-        <v>79</v>
+        <v>307</v>
       </c>
       <c r="S6" t="n">
-        <v>0.481</v>
+        <v>0.44</v>
       </c>
       <c r="T6" t="n">
-        <v>0.481</v>
+        <v>0.502</v>
       </c>
       <c r="U6" t="n">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="V6" t="n">
-        <v>16</v>
+        <v>155</v>
       </c>
       <c r="W6" t="n">
-        <v>0.75</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="X6" t="n">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="Y6" t="n">
-        <v>52</v>
+        <v>221</v>
       </c>
       <c r="Z6" t="n">
-        <v>80</v>
+        <v>268</v>
       </c>
       <c r="AA6" t="n">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="AB6" t="n">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="AC6" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="AD6" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="AE6" t="n">
-        <v>39</v>
+        <v>153</v>
       </c>
       <c r="AF6" t="n">
-        <v>88</v>
+        <v>768</v>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 216</t>
+          <t xml:space="preserve"> 201</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 102 </t>
+          <t xml:space="preserve"> 104 </t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
@@ -1128,7 +1156,7 @@
         </is>
       </c>
       <c r="AJ6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1140,108 +1168,110 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1980-81</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="D7" t="n">
+        <v>24</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>46</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1094</v>
+      </c>
+      <c r="K7" t="n">
+        <v>152</v>
+      </c>
+      <c r="L7" t="n">
+        <v>340</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.447</v>
+      </c>
+      <c r="N7" t="n">
+        <v>55</v>
+      </c>
+      <c r="O7" t="n">
+        <v>132</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>97</v>
+      </c>
+      <c r="R7" t="n">
+        <v>208</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.466</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.528</v>
+      </c>
+      <c r="U7" t="n">
+        <v>94</v>
+      </c>
+      <c r="V7" t="n">
+        <v>122</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="X7" t="n">
+        <v>36</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>111</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>147</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>53</v>
+      </c>
+      <c r="AB7" t="n">
         <v>28</v>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>NYK</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NBA</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>82</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>1708</v>
-      </c>
-      <c r="K7" t="n">
-        <v>159</v>
-      </c>
-      <c r="L7" t="n">
-        <v>341</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.466</v>
-      </c>
-      <c r="N7" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" t="n">
-        <v>4</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>158</v>
-      </c>
-      <c r="R7" t="n">
-        <v>337</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.469</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0.468</v>
-      </c>
-      <c r="U7" t="n">
-        <v>104</v>
-      </c>
-      <c r="V7" t="n">
-        <v>163</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0.638</v>
-      </c>
-      <c r="X7" t="n">
-        <v>162</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>303</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>465</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>72</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>27</v>
-      </c>
       <c r="AC7" t="n">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="AD7" t="n">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="AE7" t="n">
-        <v>187</v>
+        <v>101</v>
       </c>
       <c r="AF7" t="n">
-        <v>423</v>
+        <v>453</v>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 216</t>
+          <t xml:space="preserve"> 201</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 102 </t>
+          <t xml:space="preserve"> 104 </t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
@@ -1250,7 +1280,7 @@
         </is>
       </c>
       <c r="AJ7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1262,15 +1292,15 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1981-82</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1280,90 +1310,92 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="I8" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J8" t="n">
-        <v>1883</v>
+        <v>1140</v>
       </c>
       <c r="K8" t="n">
-        <v>199</v>
+        <v>115</v>
       </c>
       <c r="L8" t="n">
-        <v>405</v>
+        <v>272</v>
       </c>
       <c r="M8" t="n">
-        <v>0.491</v>
+        <v>0.423</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="inlineStr"/>
+        <v>109</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.339</v>
+      </c>
       <c r="Q8" t="n">
-        <v>199</v>
+        <v>78</v>
       </c>
       <c r="R8" t="n">
-        <v>405</v>
+        <v>163</v>
       </c>
       <c r="S8" t="n">
-        <v>0.491</v>
+        <v>0.479</v>
       </c>
       <c r="T8" t="n">
         <v>0.491</v>
       </c>
       <c r="U8" t="n">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="V8" t="n">
-        <v>170</v>
+        <v>72</v>
       </c>
       <c r="W8" t="n">
-        <v>0.635</v>
+        <v>0.792</v>
       </c>
       <c r="X8" t="n">
-        <v>184</v>
+        <v>42</v>
       </c>
       <c r="Y8" t="n">
-        <v>306</v>
+        <v>126</v>
       </c>
       <c r="Z8" t="n">
-        <v>490</v>
+        <v>168</v>
       </c>
       <c r="AA8" t="n">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AB8" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="AC8" t="n">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="AD8" t="n">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="AE8" t="n">
-        <v>211</v>
+        <v>86</v>
       </c>
       <c r="AF8" t="n">
-        <v>506</v>
+        <v>324</v>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 216</t>
+          <t xml:space="preserve"> 201</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 102 </t>
+          <t xml:space="preserve"> 104 </t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
@@ -1372,7 +1404,7 @@
         </is>
       </c>
       <c r="AJ8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1384,15 +1416,15 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1982-83</t>
+          <t>2012-13</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1402,92 +1434,92 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="J9" t="n">
-        <v>1472</v>
+        <v>2200</v>
       </c>
       <c r="K9" t="n">
+        <v>281</v>
+      </c>
+      <c r="L9" t="n">
+        <v>636</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="N9" t="n">
+        <v>139</v>
+      </c>
+      <c r="O9" t="n">
+        <v>329</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.422</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>142</v>
+      </c>
+      <c r="R9" t="n">
+        <v>307</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.463</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.551</v>
+      </c>
+      <c r="U9" t="n">
         <v>168</v>
       </c>
-      <c r="L9" t="n">
-        <v>331</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.508</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>168</v>
-      </c>
-      <c r="R9" t="n">
-        <v>330</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0.509</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0.508</v>
-      </c>
-      <c r="U9" t="n">
-        <v>106</v>
-      </c>
       <c r="V9" t="n">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="W9" t="n">
-        <v>0.589</v>
+        <v>0.848</v>
       </c>
       <c r="X9" t="n">
-        <v>176</v>
+        <v>53</v>
       </c>
       <c r="Y9" t="n">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="Z9" t="n">
-        <v>443</v>
+        <v>294</v>
       </c>
       <c r="AA9" t="n">
+        <v>143</v>
+      </c>
+      <c r="AB9" t="n">
         <v>49</v>
       </c>
-      <c r="AB9" t="n">
-        <v>35</v>
-      </c>
       <c r="AC9" t="n">
-        <v>131</v>
+        <v>17</v>
       </c>
       <c r="AD9" t="n">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="AE9" t="n">
-        <v>210</v>
+        <v>166</v>
       </c>
       <c r="AF9" t="n">
-        <v>442</v>
+        <v>869</v>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 216</t>
+          <t xml:space="preserve"> 201</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 102 </t>
+          <t xml:space="preserve"> 104 </t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
@@ -1496,7 +1528,7 @@
         </is>
       </c>
       <c r="AJ9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1508,15 +1540,15 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1983-84</t>
+          <t>2013-14</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1526,90 +1558,92 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I10" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J10" t="n">
-        <v>1290</v>
+        <v>2157</v>
       </c>
       <c r="K10" t="n">
-        <v>112</v>
+        <v>254</v>
       </c>
       <c r="L10" t="n">
-        <v>239</v>
+        <v>587</v>
       </c>
       <c r="M10" t="n">
-        <v>0.469</v>
+        <v>0.433</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="inlineStr"/>
+        <v>372</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.392</v>
+      </c>
       <c r="Q10" t="n">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="R10" t="n">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="S10" t="n">
-        <v>0.469</v>
+        <v>0.502</v>
       </c>
       <c r="T10" t="n">
-        <v>0.469</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="U10" t="n">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="V10" t="n">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="W10" t="n">
-        <v>0.5639999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="X10" t="n">
-        <v>146</v>
+        <v>38</v>
       </c>
       <c r="Y10" t="n">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="Z10" t="n">
-        <v>366</v>
+        <v>222</v>
       </c>
       <c r="AA10" t="n">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="AB10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC10" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="AD10" t="n">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="AE10" t="n">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="AF10" t="n">
-        <v>290</v>
+        <v>759</v>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 216</t>
+          <t xml:space="preserve"> 201</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 102 </t>
+          <t xml:space="preserve"> 104 </t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
@@ -1618,7 +1652,7 @@
         </is>
       </c>
       <c r="AJ10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1630,15 +1664,15 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1986-87</t>
+          <t>2014-15</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1648,92 +1682,92 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>102</v>
+        <v>352</v>
       </c>
       <c r="K11" t="n">
+        <v>24</v>
+      </c>
+      <c r="L11" t="n">
+        <v>91</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.264</v>
+      </c>
+      <c r="N11" t="n">
         <v>10</v>
       </c>
-      <c r="L11" t="n">
-        <v>19</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.526</v>
-      </c>
-      <c r="N11" t="n">
-        <v>1</v>
-      </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>0.233</v>
       </c>
       <c r="Q11" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="R11" t="n">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="S11" t="n">
-        <v>0.5</v>
+        <v>0.292</v>
       </c>
       <c r="T11" t="n">
-        <v>0.5529999999999999</v>
+        <v>0.319</v>
       </c>
       <c r="U11" t="n">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="V11" t="n">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="W11" t="n">
         <v>0.75</v>
       </c>
       <c r="X11" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y11" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="Z11" t="n">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="AA11" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="AB11" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AC11" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AD11" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="AE11" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="AF11" t="n">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 216</t>
+          <t xml:space="preserve"> 201</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 102 </t>
+          <t xml:space="preserve"> 104 </t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
@@ -1742,7 +1776,7 @@
         </is>
       </c>
       <c r="AJ11" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1761,97 +1795,97 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>TOT</t>
+          <t>NBA</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>617</v>
+        <v>580</v>
       </c>
       <c r="I12" t="n">
-        <v>37</v>
+        <v>266</v>
       </c>
       <c r="J12" t="n">
-        <v>13364</v>
+        <v>13914</v>
       </c>
       <c r="K12" t="n">
-        <v>1630</v>
+        <v>1696</v>
       </c>
       <c r="L12" t="n">
-        <v>3343</v>
+        <v>4062</v>
       </c>
       <c r="M12" t="n">
-        <v>0.488</v>
+        <v>0.418</v>
       </c>
       <c r="N12" t="n">
-        <v>2</v>
+        <v>790</v>
       </c>
       <c r="O12" t="n">
-        <v>7</v>
+        <v>2067</v>
       </c>
       <c r="P12" t="n">
-        <v>0.286</v>
+        <v>0.382</v>
       </c>
       <c r="Q12" t="n">
-        <v>1628</v>
+        <v>906</v>
       </c>
       <c r="R12" t="n">
-        <v>3336</v>
+        <v>1995</v>
       </c>
       <c r="S12" t="n">
-        <v>0.488</v>
+        <v>0.454</v>
       </c>
       <c r="T12" t="n">
-        <v>0.488</v>
+        <v>0.515</v>
       </c>
       <c r="U12" t="n">
-        <v>1040</v>
+        <v>874</v>
       </c>
       <c r="V12" t="n">
-        <v>1675</v>
+        <v>1105</v>
       </c>
       <c r="W12" t="n">
-        <v>0.621</v>
+        <v>0.7909999999999999</v>
       </c>
       <c r="X12" t="n">
-        <v>1482</v>
+        <v>352</v>
       </c>
       <c r="Y12" t="n">
-        <v>2736</v>
+        <v>1459</v>
       </c>
       <c r="Z12" t="n">
-        <v>4218</v>
+        <v>1811</v>
       </c>
       <c r="AA12" t="n">
-        <v>752</v>
+        <v>588</v>
       </c>
       <c r="AB12" t="n">
-        <v>228</v>
+        <v>299</v>
       </c>
       <c r="AC12" t="n">
-        <v>881</v>
+        <v>160</v>
       </c>
       <c r="AD12" t="n">
-        <v>873</v>
+        <v>536</v>
       </c>
       <c r="AE12" t="n">
-        <v>1505</v>
+        <v>1055</v>
       </c>
       <c r="AF12" t="n">
-        <v>4302</v>
+        <v>5056</v>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 216</t>
+          <t xml:space="preserve"> 201</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 102 </t>
+          <t xml:space="preserve"> 104 </t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
@@ -1860,7 +1894,7 @@
         </is>
       </c>
       <c r="AJ12" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
